--- a/data/trans_orig/P8_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E9C914-3135-49B0-B703-6ABB94809905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A197AEF-1668-4D71-89A9-5A9F4A249985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44DB79D8-BEB7-4088-94DF-FD8448CFFA36}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C78E8E1-2E85-4198-B778-442248FAD23B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="605">
   <si>
     <t>Población con limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1759 +77,1783 @@
     <t>15,55%</t>
   </si>
   <si>
-    <t>10,93%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
   </si>
   <si>
     <t>26,61%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>84,96%</t>
   </si>
   <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E6C7D8-D8AC-4DF9-901D-5B8146C5B114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9BABF6-BA67-43A1-A897-ED21FE2EB7EC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3018,10 +3042,10 @@
         <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3060,13 @@
         <v>184478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>162</v>
@@ -3054,10 +3078,10 @@
         <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>346</v>
@@ -3066,13 +3090,13 @@
         <v>353386</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,7 +3152,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3140,13 +3164,13 @@
         <v>41746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -3155,13 +3179,13 @@
         <v>71624</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -3170,13 +3194,13 @@
         <v>113370</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3215,13 @@
         <v>229065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -3206,13 +3230,13 @@
         <v>206520</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>426</v>
@@ -3221,13 +3245,13 @@
         <v>435585</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,7 +3307,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3295,13 +3319,13 @@
         <v>95103</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>147</v>
@@ -3310,13 +3334,13 @@
         <v>147235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>247</v>
@@ -3325,13 +3349,13 @@
         <v>242338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3370,13 @@
         <v>519924</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>474</v>
@@ -3361,13 +3385,13 @@
         <v>490984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>972</v>
@@ -3376,13 +3400,13 @@
         <v>1010908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,7 +3462,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3450,13 +3474,13 @@
         <v>108571</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>170</v>
@@ -3465,13 +3489,13 @@
         <v>183184</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>283</v>
@@ -3480,13 +3504,13 @@
         <v>291756</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3525,13 @@
         <v>635224</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>575</v>
@@ -3516,13 +3540,13 @@
         <v>600327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1198</v>
@@ -3531,13 +3555,13 @@
         <v>1235550</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3629,13 @@
         <v>456316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>759</v>
@@ -3620,13 +3644,13 @@
         <v>785598</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>1226</v>
@@ -3638,10 +3662,10 @@
         <v>57</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3680,13 @@
         <v>2820228</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="H29" s="7">
         <v>2538</v>
@@ -3683,7 +3707,7 @@
         <v>5285</v>
       </c>
       <c r="N29" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>66</v>
@@ -3734,7 +3758,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92971F01-8617-4A7D-9AE6-71DC9DFC84B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D66F52-8EFE-4326-8FCE-D17BF4944AED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4194,7 +4218,7 @@
         <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -4203,13 +4227,13 @@
         <v>79176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4218,13 +4242,13 @@
         <v>130989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4263,13 @@
         <v>272233</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -4254,13 +4278,13 @@
         <v>261844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>515</v>
@@ -4269,13 +4293,13 @@
         <v>534077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4367,13 @@
         <v>105490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -4358,13 +4382,13 @@
         <v>198314</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -4373,13 +4397,13 @@
         <v>303804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4418,13 @@
         <v>563230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -4409,13 +4433,13 @@
         <v>477882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>965</v>
@@ -4424,13 +4448,13 @@
         <v>1041112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4522,13 @@
         <v>36872</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -4513,13 +4537,13 @@
         <v>67351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -4528,13 +4552,13 @@
         <v>104223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4573,13 @@
         <v>175746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -4564,13 +4588,13 @@
         <v>152240</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
@@ -4579,13 +4603,13 @@
         <v>327986</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4665,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4653,13 +4677,13 @@
         <v>54577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -4668,13 +4692,13 @@
         <v>78742</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -4683,13 +4707,13 @@
         <v>133319</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4728,13 @@
         <v>219404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -4719,13 +4743,13 @@
         <v>200202</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>400</v>
@@ -4734,13 +4758,13 @@
         <v>419606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4820,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4808,13 +4832,13 @@
         <v>84394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4823,13 +4847,13 @@
         <v>175106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>236</v>
@@ -4838,13 +4862,13 @@
         <v>259499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,13 +4883,13 @@
         <v>575503</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>478</v>
@@ -4874,13 +4898,13 @@
         <v>518747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1016</v>
@@ -4889,13 +4913,13 @@
         <v>1094251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4975,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4963,13 +4987,13 @@
         <v>124517</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>276</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H25" s="7">
         <v>165</v>
@@ -4978,13 +5002,13 @@
         <v>182836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M25" s="7">
         <v>275</v>
@@ -4993,13 +5017,13 @@
         <v>307352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5038,13 @@
         <v>653551</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
         <v>592</v>
@@ -5029,13 +5053,13 @@
         <v>641017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>1198</v>
@@ -5044,13 +5068,13 @@
         <v>1294569</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5142,13 @@
         <v>532763</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H28" s="7">
         <v>847</v>
@@ -5133,13 +5157,13 @@
         <v>915715</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M28" s="7">
         <v>1331</v>
@@ -5148,13 +5172,13 @@
         <v>1448478</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5193,13 @@
         <v>2890095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>2450</v>
@@ -5184,13 +5208,13 @@
         <v>2641507</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M29" s="7">
         <v>5172</v>
@@ -5199,13 +5223,13 @@
         <v>5531602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD358067-F0A4-46C1-8CC0-51EA9AF61011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8349B28-E7C7-4103-8907-ECF0A9CF3C00}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5302,7 +5326,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5409,13 +5433,13 @@
         <v>52735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -5424,13 +5448,13 @@
         <v>77781</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -5439,13 +5463,13 @@
         <v>130516</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5484,13 @@
         <v>241026</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>207</v>
@@ -5475,13 +5499,13 @@
         <v>210922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>86</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -5600,7 +5624,7 @@
         <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5639,13 @@
         <v>443180</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>388</v>
@@ -5630,13 +5654,13 @@
         <v>410445</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>805</v>
@@ -5645,13 +5669,13 @@
         <v>853626</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5743,13 @@
         <v>41372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -5734,13 +5758,13 @@
         <v>63673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -5749,13 +5773,13 @@
         <v>105046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5794,13 @@
         <v>277193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -5785,13 +5809,13 @@
         <v>272636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>564</v>
@@ -5800,13 +5824,13 @@
         <v>549828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +5898,13 @@
         <v>56078</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -5889,13 +5913,13 @@
         <v>102714</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -5904,13 +5928,13 @@
         <v>158792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5949,13 @@
         <v>313886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>271</v>
@@ -5940,13 +5964,13 @@
         <v>284569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>569</v>
@@ -5955,13 +5979,13 @@
         <v>598455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6053,13 @@
         <v>26743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -6044,13 +6068,13 @@
         <v>47664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -6059,13 +6083,13 @@
         <v>74407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6104,13 @@
         <v>184478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -6095,13 +6119,13 @@
         <v>170923</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>362</v>
@@ -6110,13 +6134,13 @@
         <v>355401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,7 +6196,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6184,13 +6208,13 @@
         <v>53808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6199,13 +6223,13 @@
         <v>82584</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -6214,13 +6238,13 @@
         <v>136392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6259,13 @@
         <v>209315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -6250,13 +6274,13 @@
         <v>190531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>394</v>
@@ -6265,13 +6289,13 @@
         <v>399846</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6351,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6339,13 +6363,13 @@
         <v>106658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>140</v>
@@ -6354,13 +6378,13 @@
         <v>160141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -6369,13 +6393,13 @@
         <v>266798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6414,13 @@
         <v>549900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>506</v>
@@ -6405,13 +6429,13 @@
         <v>531153</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>988</v>
@@ -6420,13 +6444,13 @@
         <v>1081054</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,7 +6506,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6494,13 +6518,13 @@
         <v>95192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -6509,13 +6533,13 @@
         <v>161477</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>230</v>
@@ -6527,10 +6551,10 @@
         <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6545,13 +6569,13 @@
         <v>683391</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H26" s="7">
         <v>621</v>
@@ -6560,13 +6584,13 @@
         <v>664690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>1275</v>
@@ -6575,13 +6599,13 @@
         <v>1348081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6649,13 +6673,13 @@
         <v>491981</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>263</v>
       </c>
       <c r="H28" s="7">
         <v>700</v>
@@ -6664,13 +6688,13 @@
         <v>808672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>1188</v>
@@ -6679,13 +6703,13 @@
         <v>1300652</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6724,13 @@
         <v>2902369</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>271</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>2638</v>
@@ -6715,13 +6739,13 @@
         <v>2735870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>419</v>
+        <v>456</v>
       </c>
       <c r="M29" s="7">
         <v>5381</v>
@@ -6730,13 +6754,13 @@
         <v>5638240</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E39FA05-0E3C-48EE-ABF2-76E26A63CF46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC0593F-339F-4222-8C4F-12FB14E6CC63}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6833,7 +6857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6940,13 +6964,13 @@
         <v>40968</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>463</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -6955,13 +6979,13 @@
         <v>54953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -6970,13 +6994,13 @@
         <v>95921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +7015,13 @@
         <v>219330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>470</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H5" s="7">
         <v>422</v>
@@ -7006,13 +7030,13 @@
         <v>216450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="M5" s="7">
         <v>696</v>
@@ -7021,13 +7045,13 @@
         <v>435779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7095,13 +7119,13 @@
         <v>100492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H7" s="7">
         <v>209</v>
@@ -7110,13 +7134,13 @@
         <v>138570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>278</v>
+        <v>480</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -7125,13 +7149,13 @@
         <v>239062</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7170,13 @@
         <v>418805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -7161,13 +7185,13 @@
         <v>415996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>488</v>
       </c>
       <c r="M8" s="7">
         <v>799</v>
@@ -7176,13 +7200,13 @@
         <v>834802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7250,13 +7274,13 @@
         <v>47851</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -7265,13 +7289,13 @@
         <v>72973</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
@@ -7280,13 +7304,13 @@
         <v>120825</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7325,13 @@
         <v>274389</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>407</v>
@@ -7316,13 +7340,13 @@
         <v>299681</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M11" s="7">
         <v>701</v>
@@ -7331,10 +7355,10 @@
         <v>574069</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>508</v>
@@ -7405,7 +7429,7 @@
         <v>60380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>509</v>
@@ -7423,10 +7447,10 @@
         <v>511</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>512</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>233</v>
+        <v>513</v>
       </c>
       <c r="M13" s="7">
         <v>254</v>
@@ -7435,13 +7459,13 @@
         <v>148915</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>515</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7456,13 +7480,13 @@
         <v>261860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>415</v>
@@ -7471,13 +7495,13 @@
         <v>340020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -7486,13 +7510,13 @@
         <v>601881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7584,13 @@
         <v>24321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -7575,13 +7599,13 @@
         <v>63007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>112</v>
+        <v>528</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -7590,13 +7614,13 @@
         <v>87327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7635,13 @@
         <v>172427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -7626,13 +7650,13 @@
         <v>195901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>536</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="M17" s="7">
         <v>583</v>
@@ -7641,13 +7665,13 @@
         <v>368329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,7 +7727,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7715,13 +7739,13 @@
         <v>35832</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -7730,13 +7754,13 @@
         <v>53988</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>536</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -7745,13 +7769,13 @@
         <v>89819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>545</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,13 +7790,13 @@
         <v>241391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>540</v>
+        <v>136</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="H20" s="7">
         <v>334</v>
@@ -7781,13 +7805,13 @@
         <v>221634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>639</v>
@@ -7796,13 +7820,13 @@
         <v>463026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>413</v>
+        <v>552</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,7 +7882,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7870,13 +7894,13 @@
         <v>106349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -7885,13 +7909,13 @@
         <v>177210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
         <v>393</v>
@@ -7900,13 +7924,13 @@
         <v>283559</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7945,13 @@
         <v>520587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="H23" s="7">
         <v>684</v>
@@ -7936,13 +7960,13 @@
         <v>626993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -7951,13 +7975,13 @@
         <v>1147580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8013,7 +8037,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8025,13 +8049,13 @@
         <v>155407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
         <v>288</v>
@@ -8040,13 +8064,13 @@
         <v>207809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>568</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -8055,13 +8079,13 @@
         <v>363215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8076,13 +8100,13 @@
         <v>704021</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="H26" s="7">
         <v>774</v>
@@ -8091,13 +8115,13 @@
         <v>660625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>577</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -8106,13 +8130,13 @@
         <v>1364647</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8204,13 @@
         <v>571599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
         <v>1476</v>
@@ -8195,13 +8219,13 @@
         <v>857045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>469</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
         <v>2104</v>
@@ -8210,13 +8234,13 @@
         <v>1428644</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8255,13 @@
         <v>2812811</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="H29" s="7">
         <v>3889</v>
@@ -8246,13 +8270,13 @@
         <v>2977301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>602</v>
       </c>
       <c r="M29" s="7">
         <v>6636</v>
@@ -8261,13 +8285,13 @@
         <v>5790112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P8_2_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A197AEF-1668-4D71-89A9-5A9F4A249985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B65434-05B8-46A3-B700-98EA3A9B3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3C78E8E1-2E85-4198-B778-442248FAD23B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDB214AE-348D-432F-9238-3D826E4A3151}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="609">
   <si>
     <t>Población con limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1626 +77,1644 @@
     <t>15,55%</t>
   </si>
   <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
     <t>83,75%</t>
   </si>
   <si>
@@ -1727,9 +1745,6 @@
     <t>19,81%</t>
   </si>
   <si>
-    <t>14,76%</t>
-  </si>
-  <si>
     <t>22,45%</t>
   </si>
   <si>
@@ -1755,9 +1770,6 @@
   </si>
   <si>
     <t>77,55%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
   </si>
   <si>
     <t>18,08%</t>
@@ -2265,7 +2277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9BABF6-BA67-43A1-A897-ED21FE2EB7EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0825F724-BFF3-4AAC-B54B-E1C5C649334E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3507,10 +3519,10 @@
         <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3537,13 @@
         <v>635224</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>575</v>
@@ -3540,13 +3552,13 @@
         <v>600327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1198</v>
@@ -3555,13 +3567,13 @@
         <v>1235550</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,13 +3641,13 @@
         <v>456316</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>759</v>
@@ -3644,13 +3656,13 @@
         <v>785598</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>1226</v>
@@ -3662,10 +3674,10 @@
         <v>57</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3689,13 @@
         <v>2747</v>
       </c>
       <c r="D29" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>79</v>
@@ -3695,13 +3707,13 @@
         <v>2593600</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>5285</v>
@@ -3713,10 +3725,10 @@
         <v>66</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3740,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3772,7 +3784,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D66F52-8EFE-4326-8FCE-D17BF4944AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01B28D5-713E-4250-A003-2F3AB795109D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3813,7 +3825,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3918,39 +3930,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,39 +3975,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,39 +4020,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4069,13 @@
         <v>75100</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>122</v>
@@ -4072,13 +4084,13 @@
         <v>134191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>185</v>
@@ -4087,13 +4099,13 @@
         <v>209291</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4120,13 @@
         <v>430427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>358</v>
@@ -4123,13 +4135,13 @@
         <v>389574</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>767</v>
@@ -4138,13 +4150,13 @@
         <v>820001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,13 +4224,13 @@
         <v>51813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -4227,13 +4239,13 @@
         <v>79176</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -4242,13 +4254,13 @@
         <v>130989</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4275,13 @@
         <v>272233</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -4278,13 +4290,13 @@
         <v>261844</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>515</v>
@@ -4293,13 +4305,13 @@
         <v>534077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4379,13 @@
         <v>105490</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>189</v>
@@ -4382,13 +4394,13 @@
         <v>198314</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>288</v>
@@ -4397,13 +4409,13 @@
         <v>303804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,13 +4430,13 @@
         <v>563230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -4433,13 +4445,13 @@
         <v>477882</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>965</v>
@@ -4448,13 +4460,13 @@
         <v>1041112</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4534,13 @@
         <v>36872</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -4537,13 +4549,13 @@
         <v>67351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -4552,13 +4564,13 @@
         <v>104223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4585,13 @@
         <v>175746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>148</v>
@@ -4588,13 +4600,13 @@
         <v>152240</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
@@ -4603,13 +4615,13 @@
         <v>327986</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4689,13 @@
         <v>54577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>247</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -4692,13 +4704,13 @@
         <v>78742</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -4707,13 +4719,13 @@
         <v>133319</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4740,13 @@
         <v>219404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>192</v>
@@ -4743,13 +4755,13 @@
         <v>200202</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>400</v>
@@ -4758,13 +4770,13 @@
         <v>419606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,13 +4844,13 @@
         <v>84394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="H22" s="7">
         <v>158</v>
@@ -4847,13 +4859,13 @@
         <v>175106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>236</v>
@@ -4862,13 +4874,13 @@
         <v>259499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4895,13 @@
         <v>575503</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>478</v>
@@ -4898,13 +4910,13 @@
         <v>518747</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>1016</v>
@@ -4913,13 +4925,13 @@
         <v>1094251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4999,13 @@
         <v>124517</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>165</v>
@@ -5002,13 +5014,13 @@
         <v>182836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>275</v>
@@ -5017,13 +5029,13 @@
         <v>307352</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5050,13 @@
         <v>653551</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>592</v>
@@ -5053,13 +5065,13 @@
         <v>641017</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>1198</v>
@@ -5068,13 +5080,13 @@
         <v>1294569</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5154,13 @@
         <v>532763</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>847</v>
@@ -5157,13 +5169,13 @@
         <v>915715</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>1331</v>
@@ -5172,13 +5184,13 @@
         <v>1448478</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>303</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5205,13 @@
         <v>2890095</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H29" s="7">
         <v>2450</v>
@@ -5208,13 +5220,13 @@
         <v>2641507</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M29" s="7">
         <v>5172</v>
@@ -5223,13 +5235,13 @@
         <v>5531602</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5297,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5309,7 +5321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8349B28-E7C7-4103-8907-ECF0A9CF3C00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD7B8D4-858F-4361-A294-BD9626D12582}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5326,7 +5338,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5445,13 @@
         <v>52735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -5448,13 +5460,13 @@
         <v>77781</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -5463,13 +5475,13 @@
         <v>130516</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5496,13 @@
         <v>241026</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>207</v>
@@ -5499,13 +5511,13 @@
         <v>210922</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>424</v>
@@ -5514,13 +5526,13 @@
         <v>451948</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5600,13 @@
         <v>59395</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>96</v>
@@ -5603,13 +5615,13 @@
         <v>112639</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>154</v>
@@ -5618,13 +5630,13 @@
         <v>172033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5651,13 @@
         <v>443180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>388</v>
@@ -5654,13 +5666,13 @@
         <v>410445</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>805</v>
@@ -5669,13 +5681,13 @@
         <v>853626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>292</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5755,13 @@
         <v>41372</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -5758,13 +5770,13 @@
         <v>63673</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -5773,13 +5785,13 @@
         <v>105046</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5806,13 @@
         <v>277193</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>305</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -5809,13 +5821,13 @@
         <v>272636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>564</v>
@@ -5824,13 +5836,13 @@
         <v>549828</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5910,13 @@
         <v>56078</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -5913,13 +5925,13 @@
         <v>102714</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>143</v>
@@ -5928,13 +5940,13 @@
         <v>158792</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5961,13 @@
         <v>313886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7">
         <v>271</v>
@@ -5964,13 +5976,13 @@
         <v>284569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>569</v>
@@ -5979,13 +5991,13 @@
         <v>598455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6065,13 @@
         <v>26743</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -6068,13 +6080,13 @@
         <v>47664</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>73</v>
@@ -6083,13 +6095,13 @@
         <v>74407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6116,13 @@
         <v>184478</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -6119,13 +6131,13 @@
         <v>170923</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>362</v>
@@ -6134,13 +6146,13 @@
         <v>355401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6220,13 @@
         <v>53808</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -6223,13 +6235,13 @@
         <v>82584</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -6238,13 +6250,13 @@
         <v>136392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6271,13 @@
         <v>209315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -6274,13 +6286,13 @@
         <v>190531</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>394</v>
@@ -6289,13 +6301,13 @@
         <v>399846</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6375,13 @@
         <v>106658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>18</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>140</v>
@@ -6378,13 +6390,13 @@
         <v>160141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>238</v>
@@ -6393,13 +6405,13 @@
         <v>266798</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6426,13 @@
         <v>549900</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>29</v>
       </c>
       <c r="H23" s="7">
         <v>506</v>
@@ -6429,13 +6441,13 @@
         <v>531153</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="M23" s="7">
         <v>988</v>
@@ -6444,13 +6456,13 @@
         <v>1081054</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6530,13 @@
         <v>95192</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>134</v>
@@ -6533,13 +6545,13 @@
         <v>161477</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>230</v>
@@ -6548,13 +6560,13 @@
         <v>256669</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6581,13 @@
         <v>683391</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H26" s="7">
         <v>621</v>
@@ -6584,13 +6596,13 @@
         <v>664690</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>444</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="M26" s="7">
         <v>1275</v>
@@ -6599,13 +6611,13 @@
         <v>1348081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6685,13 @@
         <v>491981</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="H28" s="7">
         <v>700</v>
@@ -6688,13 +6700,13 @@
         <v>808672</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M28" s="7">
         <v>1188</v>
@@ -6703,13 +6715,13 @@
         <v>1300652</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6736,13 @@
         <v>2902369</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>271</v>
+        <v>68</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>2638</v>
@@ -6739,13 +6751,13 @@
         <v>2735870</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="M29" s="7">
         <v>5381</v>
@@ -6754,13 +6766,13 @@
         <v>5638240</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6828,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6840,7 +6852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAC0593F-339F-4222-8C4F-12FB14E6CC63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF46898F-C889-4BDE-BD63-CAEB678867D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +6869,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6964,13 +6976,13 @@
         <v>40968</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>116</v>
@@ -6979,13 +6991,13 @@
         <v>54953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>173</v>
@@ -6994,13 +7006,13 @@
         <v>95921</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7027,13 @@
         <v>219330</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>422</v>
@@ -7030,13 +7042,13 @@
         <v>216450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M5" s="7">
         <v>696</v>
@@ -7045,13 +7057,13 @@
         <v>435779</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7131,13 @@
         <v>100492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
         <v>209</v>
@@ -7134,13 +7146,13 @@
         <v>138570</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -7149,13 +7161,13 @@
         <v>239062</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>482</v>
+        <v>373</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7182,13 @@
         <v>418805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -7185,13 +7197,13 @@
         <v>415996</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M8" s="7">
         <v>799</v>
@@ -7200,13 +7212,13 @@
         <v>834802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7274,13 +7286,13 @@
         <v>47851</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="H10" s="7">
         <v>128</v>
@@ -7289,13 +7301,13 @@
         <v>72973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M10" s="7">
         <v>194</v>
@@ -7304,13 +7316,13 @@
         <v>120825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7337,13 @@
         <v>274389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H11" s="7">
         <v>407</v>
@@ -7340,13 +7352,13 @@
         <v>299681</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="M11" s="7">
         <v>701</v>
@@ -7355,13 +7367,13 @@
         <v>574069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7441,13 @@
         <v>60380</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -7444,13 +7456,13 @@
         <v>88536</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>512</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="M13" s="7">
         <v>254</v>
@@ -7459,13 +7471,13 @@
         <v>148915</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7492,13 @@
         <v>261860</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H14" s="7">
         <v>415</v>
@@ -7495,13 +7507,13 @@
         <v>340020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -7510,13 +7522,13 @@
         <v>601881</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,13 +7596,13 @@
         <v>24321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -7599,13 +7611,13 @@
         <v>63007</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M16" s="7">
         <v>190</v>
@@ -7614,13 +7626,13 @@
         <v>87327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,13 +7647,13 @@
         <v>172427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -7650,13 +7662,13 @@
         <v>195901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M17" s="7">
         <v>583</v>
@@ -7665,13 +7677,13 @@
         <v>368329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7739,13 +7751,13 @@
         <v>35832</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>543</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H19" s="7">
         <v>126</v>
@@ -7754,13 +7766,13 @@
         <v>53988</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>547</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="M19" s="7">
         <v>192</v>
@@ -7769,13 +7781,13 @@
         <v>89819</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7790,13 +7802,13 @@
         <v>241391</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>552</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H20" s="7">
         <v>334</v>
@@ -7805,13 +7817,13 @@
         <v>221634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>392</v>
+        <v>557</v>
       </c>
       <c r="M20" s="7">
         <v>639</v>
@@ -7820,13 +7832,13 @@
         <v>463026</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7906,13 @@
         <v>106349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -7909,13 +7921,13 @@
         <v>177210</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M22" s="7">
         <v>393</v>
@@ -7924,13 +7936,13 @@
         <v>283559</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>562</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,13 +7957,13 @@
         <v>520587</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H23" s="7">
         <v>684</v>
@@ -7960,13 +7972,13 @@
         <v>626993</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -7975,13 +7987,13 @@
         <v>1147580</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>572</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8049,13 +8061,13 @@
         <v>155407</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H25" s="7">
         <v>288</v>
@@ -8064,13 +8076,13 @@
         <v>207809</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -8079,13 +8091,13 @@
         <v>363215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8100,13 +8112,13 @@
         <v>704021</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H26" s="7">
         <v>774</v>
@@ -8115,13 +8127,13 @@
         <v>660625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M26" s="7">
         <v>1416</v>
@@ -8130,13 +8142,13 @@
         <v>1364647</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8204,13 +8216,13 @@
         <v>571599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="H28" s="7">
         <v>1476</v>
@@ -8219,13 +8231,13 @@
         <v>857045</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="M28" s="7">
         <v>2104</v>
@@ -8234,13 +8246,13 @@
         <v>1428644</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8255,13 +8267,13 @@
         <v>2812811</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H29" s="7">
         <v>3889</v>
@@ -8270,13 +8282,13 @@
         <v>2977301</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M29" s="7">
         <v>6636</v>
@@ -8285,13 +8297,13 @@
         <v>5790112</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8347,7 +8359,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
